--- a/测试/设备信息表.xlsx
+++ b/测试/设备信息表.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lianghw\PycharmProjects\py3_net_xj\测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766AFE95-7EA0-4C9F-B03D-0B9AC58AA8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D0C51-1FE6-48E4-B4B3-B87D7B9F50D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2676" windowWidth="26184" windowHeight="14004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="hp_comware" sheetId="3" r:id="rId2"/>
+    <sheet name="cisco_ios" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,41 +27,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
-  <si>
-    <t>hostname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>protocol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>port</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device_type</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+  <si>
+    <t>show ver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show ip int b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -67,62 +41,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>192.186.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.186.1.2</t>
-  </si>
-  <si>
-    <t>192.186.1.3</t>
-  </si>
-  <si>
-    <t>192.186.1.4</t>
-  </si>
-  <si>
-    <t>192.186.1.5</t>
-  </si>
-  <si>
-    <t>192.186.1.6</t>
-  </si>
-  <si>
-    <t>192.186.1.7</t>
-  </si>
-  <si>
-    <t>192.186.1.8</t>
-  </si>
-  <si>
-    <t>192.186.1.9</t>
-  </si>
-  <si>
-    <t>192.186.1.10</t>
+    <t>192.168.56.101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ssh</t>
@@ -133,11 +53,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cisco</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cisco_ios</t>
+    <t>hp_comware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">disp ip int b </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display version</t>
+  </si>
+  <si>
+    <t>设备名称
+hostname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释行#
+comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备管理地址
+ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理协议
+protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端口号
+port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理用户
+username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码
+password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特权密码
+secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备类型
+device_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作命令
+cmd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,16 +133,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -177,15 +179,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,256 +491,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -720,4 +566,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294F40A8-CC95-4283-ADE6-3E8AE7ABA1F1}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9862EC-2C0B-4FAE-BD4D-EBAF774FAA5E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/测试/设备信息表.xlsx
+++ b/测试/设备信息表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lianghw\PycharmProjects\py3_net_xj\测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D0C51-1FE6-48E4-B4B3-B87D7B9F50D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330129A4-3929-401A-8A1E-C9BF2EE7ADFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2676" windowWidth="26184" windowHeight="14004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>show ver</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>R1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.56.101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -111,6 +107,26 @@
   <si>
     <t>操作命令
 cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.56.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.56.111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.56.103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,11 +507,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -514,31 +530,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -546,19 +562,59 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -585,20 +641,20 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -624,10 +680,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
